--- a/Datos/Database by set/Set with text box/Xlsx sets/Open the Helvault (PHEL).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Open the Helvault (PHEL).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,273 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>('Angel', ['Token Creature — Angel', 'Flying', '4/4', 'Demon', 'Token Creature — Demon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Angel</t>
+          <t>('Avacyn, Angel of Hope', ['{5}{W}{W}{W}', 'Legendary Creature — Angel', 'Flying, vigilance, indestructible', 'Other permanents you control have indestructible.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Bruna, Light of Alabaster', ['{3}{W}{W}{U}', 'Legendary Creature — Angel', 'Flying, vigilance', 'Whenever Bruna, Light of Alabaster attacks or blocks, you may attach to it any number of Auras on the battlefield and you may put onto the battlefield attached to it any number of Aura cards that could enchant it from your graveyard and/or hand.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Gisela, Blade of Goldnight', ['{4}{R}{W}{W}', 'Legendary Creature — Angel', 'Flying, first strike', 'If a source would deal damage to an opponent or a permanent an opponent controls, that source deals double that damage to that player or permanent instead.', 'If a source would deal damage to you or a permanent you control, prevent half that damage, rounded up.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Demon</t>
+          <t>('Griselbrand', ['{4}{B}{B}{B}{B}', 'Legendary Creature — Demon', 'Flying, lifelink', 'Pay 7 life: Draw seven cards.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Avacyn, Angel of Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{5}{W}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flying, vigilance, indestructible</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other permanents you control have indestructible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>8/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bruna, Light of Alabaster</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Flying, vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Whenever Bruna, Light of Alabaster attacks or blocks, you may attach to it any number of Auras on the battlefield and you may put onto the battlefield attached to it any number of Aura cards that could enchant it from your graveyard and/or hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Gisela, Blade of Goldnight</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{4}{R}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying, first strike</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>If a source would deal damage to an opponent or a permanent an opponent controls, that source deals double that damage to that player or permanent instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>If a source would deal damage to you or a permanent you control, prevent half that damage, rounded up.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Griselbrand</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Flying, lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Pay 7 life: Draw seven cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>7/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sigarda, Host of Herons</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{2}{G}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Flying, hexproof</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Spells and abilities your opponents control can’t cause you to sacrifice permanents.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>5/5</t>
+          <t>('Sigarda, Host of Herons', ['{2}{G}{W}{W}', 'Legendary Creature — Angel', 'Flying, hexproof', 'Spells and abilities your opponents control can’t cause you to sacrifice permanents.', '5/5'])</t>
         </is>
       </c>
     </row>
